--- a/mydata/SocialLabsTrainingFormat.xlsx
+++ b/mydata/SocialLabsTrainingFormat.xlsx
@@ -14,42 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="163">
   <si>
     <t>question</t>
   </si>
   <si>
     <t>answers</t>
-  </si>
-  <si>
-    <t>How to gain more views on my facebook video?</t>
-  </si>
-  <si>
-    <t>Hello. I am stuck on creating a pixel. I feel like my Facebook has changed so much since this video was made. When I follow along everything looks different.
-How should I connect my website?
-Conversions API &amp; Meta Pixel
-Or Metal pixel only.
-I have tried with conversation api and meta pixel because it is recommended but when I go to set up conversions manually, I am printed to select events &amp; this is where I’m stuck.
-Any advice would be so appreciated :heart:</t>
-  </si>
-  <si>
-    <t>Quick question I'm trying to set up my pixel and I ran into a error saying my domain need to be verified I'm having issues copying and pasting the link. Do I contact FB for that issues</t>
-  </si>
-  <si>
-    <t>Hello, I have created these ad sets, now I need to create another two with a different objective, but It won't let me change the objective if I duplicate it, what am I not getting?
-I created my engagement for my 4 products now I want to do 2 more objectives.
-I thought once I create my ad with my audience I can simply duplicate and change the objective but that does not seem to be the case.:disappointed_relieved:</t>
-  </si>
-  <si>
-    <t>1. I understand the objective is each campaign. - Lead, Sales , Engagement.
- I guess I gut confused on the 3-5 ad sets.
-I have to make a 3-5 different "personalities"of my customer?
-2. Then the MOF , I have to pick a TOP Of funnel to Trail. (ie pick one ...my Lead, Sales, or Engagement)
-Do I sell the same thing ie provide the same URL as the TOF?
-Or should this be different link?
-3.Also the sort feature was not working so I had a question do you know how to sort I tried putting a number in front of each but that did not work.
-( I have fixed the campaigns since this image , but the question still holds.)
-Thank you again.</t>
   </si>
   <si>
     <t>What would you recommend setting the custom audience to for a salon service? I’m confused weather it should be website or customer list. I would assume website correct?
@@ -57,10 +27,6 @@
   </si>
   <si>
     <t>I’m trying to attach my pixel to my Shopify store but it won’t let me select my Facebook business page because I don’t have an established presence on Instagram. I started my page but don’t have many followers or posts. How long does it take for my account to establish presence?</t>
-  </si>
-  <si>
-    <t>I am creating the custom audience for the hot ad set, when I choose custom audience and click website, the drop down from events section doesn’t show “complete registration” as an option.
-Is there any reason that may be?</t>
   </si>
   <si>
     <t>I am trying to set up the conversion api but it says i can only have 1 pixel. Didnt allow me to set up, can yiu help please?</t>
@@ -321,10 +287,6 @@
     <t xml:space="preserve">I need to finish the course, but is it suggested that we we use the multi-copy option or should we have a different ad for each copy version? </t>
   </si>
   <si>
-    <t>Also I know the sweet spot is 2M for audience size what if we can't get it lower than 3M? Is that ok or should we continue to look for more interests?
-Lastly, if you're getting a "yellow triangle" on certain placements for your Ad creative, will they just take your money or will they not run the Ad in that placement? trying to figure out if I should remove placements to adjust.</t>
-  </si>
-  <si>
     <t>Do you recommend using automatic placements?</t>
   </si>
   <si>
@@ -361,35 +323,10 @@
     <t>What is the location of clock tower in Karachi?</t>
   </si>
   <si>
-    <t>To gain more views on your Facebook video, consider implementing the following strategies:
-Optimize your video: Make sure your video is visually appealing, well-edited, and engaging. Use high-quality visuals and clear audio to capture viewers' attention.
-Craft a compelling title and description: Use descriptive and attention-grabbing titles and descriptions that accurately represent the content of your video. This will help users understand what your video is about and encourage them to click and watch.
-Utilize keywords and tags: Include relevant keywords and tags in your video's title, description, and tags section. This will increase the visibility of your video in search results and help users find it more easily.
-Share on other platforms: Promote your video on other social media platforms, such as Instagram, Twitter, or LinkedIn. Share the video link and encourage your followers to watch and share it with their networks.
-Leverage Facebook groups and communities: Identify relevant Facebook groups or communities where your target audience is active. Share your video within these groups, but make sure to follow the group rules and engage in meaningful discussions to avoid being seen as spam.
-Collaborate with influencers: Reach out to influencers or content creators in your niche who have a substantial following on Facebook. Collaborate with them to feature or share your video, exposing it to their audience and potentially gaining more views.
-Run Facebook ads: Consider running Facebook ads to promote your video. You can target specific demographics or interests to reach a wider audience who may be interested in your content. Make sure to optimize your ad targeting and creative to maximize engagement and views.
-Engage with your audience: Encourage viewers to leave comments, like, and share your video. Respond to comments and engage in discussions to build a community around your content. This can help increase visibility and attract more viewers.
-Remember, consistently creating high-quality and valuable content is key to building an audience and gaining more views over time.</t>
-  </si>
-  <si>
-    <t>Setup pixel, dont use API, API is used for mobile app tracking, Pixel is for website.
-As you selected API - that why thats why all these option pop up to select.
-Use pixel only and setup event.</t>
-  </si>
-  <si>
-    <t>Please copy the code and put in header part of website and then click verified</t>
-  </si>
-  <si>
-    <t>Yes pixel is ok, API is only used when using mobile app</t>
-  </si>
-  <si>
-    <t>1- Objective will be same for each ad set in the same campaign .
-i.e - TOF campaign objective will be LPV , so all ads set inside TOF campaign having same objective .
-You can have maximum number of ads set targeting different audiences .
-2. You can use same url or different url its depend upon how you design funnel .
-For MOF - objective will be different .
-3. For sorting you can use TOF01 - TOF02- prefix in campaign name , this will help you in sorting .</t>
+    <t>can we run yolov8 on jetson nano developer kit</t>
+  </si>
+  <si>
+    <t>How many employees working in level3bos</t>
   </si>
   <si>
     <t>Website -(Lead, page view, ATC, checkout)
@@ -401,9 +338,6 @@
 -Integrate IG with BM .
 -Then go to shopify and complete process .
 -Now you are ready to launch , parallelly you can built your social media presence .</t>
-  </si>
-  <si>
-    <t>Complete registration has not been created yet, please check event manager if complete registration is there then it will pop up here also .</t>
   </si>
   <si>
     <t>1 pixel per personal account .
@@ -647,10 +581,6 @@
     <t>It’s the same thing, essentially. The multicopy option allows you to try different ad copies and split tests within the same ad. Sharing the same budget. Just two ways to do essentially the same thing.</t>
   </si>
   <si>
-    <t>Sweet spot for 2m is original. Then below that video, I discuss how the detailed targeting expansion feature in recent months has become more sophisticated, allowing larger audiences to be more targeted when using that feature. You may or may not see that. Having it be bigger than 3M is perfectly fine.
-The yellow triangle is a warning that the size will be adjusted, or you can go in and adjust how you'd like. Depending on the exact warning, it won't run there, so no it won't spend/deliver to those specific placements</t>
-  </si>
-  <si>
     <t>We recommend trying auto placements at first, then when you see which placements your conversions are coming from, narrow down using manual. I go over this in the lesson as well. UNLESS you want to run just a story/reel ad, for example, then ensure you go in and select just those.</t>
   </si>
   <si>
@@ -685,6 +615,15 @@
   </si>
   <si>
     <t>Clifton Karachi, near sea view</t>
+  </si>
+  <si>
+    <t>The location of the clock tower in Karachi is in the Saddar area, near the intersection of I.I. Chundrigar Road and M.A. Jinnah Road.</t>
+  </si>
+  <si>
+    <t>using Roboflow Inference. Inference is a high-performance inference server with which you can run a range of vision models, from YOLOv8 to CLIP to CogVLM. Let's get started!</t>
+  </si>
+  <si>
+    <t>there are almost 400 employess</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1061,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1069,7 +1008,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1077,7 +1016,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1085,7 +1024,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1093,7 +1032,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1101,7 +1040,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1109,7 +1048,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1117,7 +1056,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1125,7 +1064,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1133,7 +1072,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1141,7 +1080,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1149,7 +1088,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1157,7 +1096,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1165,7 +1104,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1173,7 +1112,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1181,7 +1120,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1189,7 +1128,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1197,7 +1136,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1205,7 +1144,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1213,7 +1152,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1221,7 +1160,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1229,7 +1168,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1237,7 +1176,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1245,7 +1184,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1253,7 +1192,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1261,7 +1200,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1269,7 +1208,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1277,7 +1216,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1285,7 +1224,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1293,7 +1232,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1301,7 +1240,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1309,7 +1248,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1317,7 +1256,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1325,7 +1264,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1333,7 +1272,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1341,7 +1280,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1349,7 +1288,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1357,7 +1296,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1365,7 +1304,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1373,7 +1312,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1381,7 +1320,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1389,7 +1328,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1397,7 +1336,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1405,7 +1344,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1413,7 +1352,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1421,7 +1360,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1429,7 +1368,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1437,7 +1376,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1445,7 +1384,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1453,7 +1392,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1461,7 +1400,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1469,7 +1408,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1477,7 +1416,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1485,7 +1424,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1493,7 +1432,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1501,7 +1440,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1509,7 +1448,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1517,7 +1456,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1525,7 +1464,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1533,7 +1472,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1541,7 +1480,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1549,7 +1488,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1557,7 +1496,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1565,7 +1504,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1573,7 +1512,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1581,7 +1520,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1589,7 +1528,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1597,7 +1536,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1605,7 +1544,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1613,7 +1552,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1621,7 +1560,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1629,7 +1568,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1637,7 +1576,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1645,7 +1584,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1653,7 +1592,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1661,7 +1600,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1669,7 +1608,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1677,63 +1616,47 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/mydata/SocialLabsTrainingFormat.xlsx
+++ b/mydata/SocialLabsTrainingFormat.xlsx
@@ -14,16 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="163">
   <si>
     <t>question</t>
   </si>
   <si>
     <t>answers</t>
-  </si>
-  <si>
-    <t>What would you recommend setting the custom audience to for a salon service? I’m confused weather it should be website or customer list. I would assume website correct?
-I’m understanding the info on hot, warm, and cold but I’m also having trouble applying it to my business. If that makes sense?</t>
   </si>
   <si>
     <t>I’m trying to attach my pixel to my Shopify store but it won’t let me select my Facebook business page because I don’t have an established presence on Instagram. I started my page but don’t have many followers or posts. How long does it take for my account to establish presence?</t>
@@ -329,9 +325,7 @@
     <t>How many employees working in level3bos</t>
   </si>
   <si>
-    <t>Website -(Lead, page view, ATC, checkout)
-Customer list
- Engagement  (FB/IG engagement &amp; Video view)</t>
+    <t>Hello im an artist/ researcher high ticket salesmen as well as entreprenuer and producer/musician/ex athlete tryign to scale my monetized videos and digital products whats a good app to design ads video &amp; other on cpu an dphone?? piAs cutre/graph etc. and which style is most beneficial in your opinion! running ads on instrumental beats for sale, clothing/in home itms fs as well as monetized/commercialized videos and music. aand in near futre a non profit and alkaline water business As well I am trying to use click funnels! has anyone incorperated them yet</t>
   </si>
   <si>
     <t>-You can update all basic information on Instagram.
@@ -624,6 +618,9 @@
   </si>
   <si>
     <t>there are almost 400 employess</t>
+  </si>
+  <si>
+    <t>For designing ads videos and other graphics on both a computer and phone, some popular apps include Adobe Premiere Pro for video editing and Adobe Photoshop for graphic design. Canva is also a user-friendly option for creating graphics and videos on the go. As for the style of your ads, it would depend on your target audience and the message you want to convey. It's always helpful to do some market research and competitor analysis to see what styles and visuals resonate well with your target market. As for ClickFunnels, many people have incorporated it into their businesses for creating sales funnels and landing pages. It can be a useful tool for generating leads and increasing conversions.</t>
   </si>
 </sst>
 </file>
@@ -981,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1613,7 +1610,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>159</v>
@@ -1621,18 +1618,18 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1648,14 +1645,6 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>81</v>
-      </c>
-      <c r="B84" t="s">
         <v>162</v>
       </c>
     </row>
